--- a/Project Data Sources.xlsx
+++ b/Project Data Sources.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c30aaf0810852587/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Callu\Desktop\LSE_Dream_Team\LSE_DreamTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D001EB-0CEF-4E1D-820F-E01FF232857F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51BC68-67EB-45DF-A0BE-F26C2F6ABC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{A1F36FC8-AD26-403C-89C3-44F0B43E049A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{A1F36FC8-AD26-403C-89C3-44F0B43E049A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -53,27 +50,12 @@
     <t>https://data.london.gov.uk/dataset/cycling-infrastructure-database</t>
   </si>
   <si>
-    <t>Powered by TfL Open Data </t>
-  </si>
-  <si>
-    <t>Contains OS data © Crown copyright and database rights 2016 </t>
-  </si>
-  <si>
-    <t>Geomni UK Map data © and database rights [2019]</t>
-  </si>
-  <si>
     <t>GLA GIS boundary files</t>
   </si>
   <si>
     <t>https://data.london.gov.uk/dataset/statistical-gis-boundary-files-london </t>
   </si>
   <si>
-    <t>Contains Ordnance Survey data © Crown copyright and database right 2012 </t>
-  </si>
-  <si>
-    <t>Contains National Statistics data © Crown copyright and database right 2012</t>
-  </si>
-  <si>
     <t>European Cyclist Federation</t>
   </si>
   <si>
@@ -92,9 +74,6 @@
     <t>Open Government Licence V3.0</t>
   </si>
   <si>
-    <t>Mode of travel - GOV.UK (www.gov.uk)</t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistical-data-sets/nts03-modal-comparisons</t>
   </si>
   <si>
@@ -113,9 +92,6 @@
     <t>https://data.london.gov.uk/dataset/public-transport-journeys-type-transport</t>
   </si>
   <si>
-    <t>Mode of travel</t>
-  </si>
-  <si>
     <t>Walking and cycling statistics </t>
   </si>
   <si>
@@ -128,9 +104,6 @@
     <t>https://www.gov.uk/government/statistical-data-sets/nts01-average-number-of-trips-made-and-distance-travelled</t>
   </si>
   <si>
-    <t>Reported road casualties in Great Britain: pedal cycle factsheet, 2021 - </t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistical-data-sets/reported-road-accidents-vehicles-and-casualties-tables-for-great-britain</t>
   </si>
   <si>
@@ -140,29 +113,12 @@
     <t>https://www.gov.uk/government/statistics/road-traffic-estimates-in-great-britain-2021</t>
   </si>
   <si>
-    <r>
-      <t>Pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF043C4C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>oportion of adults who walk [note 1] or cycle [note 2], by purpose [note 3] and frequency, England, November 2015 to November 2021</t>
-    </r>
-  </si>
-  <si>
     <t>https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/1100945/cw0305.ods</t>
   </si>
   <si>
     <t>Cycling Potential in London</t>
   </si>
   <si>
-    <t>cycling-potential-in-londons-diverse-communities-2021 (tfl.gov.uk)</t>
-  </si>
-  <si>
     <t>Cycle flows on the TFL network</t>
   </si>
   <si>
@@ -178,9 +134,6 @@
     <t>Public Transport Journeys by Type of Transport - London Datastore</t>
   </si>
   <si>
-    <t>When people travel - GOV.UK </t>
-  </si>
-  <si>
     <t>https://www.gov.uk/government/statistical-data-sets/nts05-trips</t>
   </si>
   <si>
@@ -196,45 +149,41 @@
     <t>https://data.london.gov.uk/dataset/walking-and-cycling-borough</t>
   </si>
   <si>
-    <t>Estimates of the population for the UK, England and Wales, Scotland and Northern Ireland - Office for National Statistics (ons.gov.uk)</t>
-  </si>
-  <si>
     <t>https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland</t>
+  </si>
+  <si>
+    <t>Powered by TfL Open Data, Contains OS data © Crown copyright and database rights 2016, Geomni UK Map data © and database rights [2019]</t>
+  </si>
+  <si>
+    <t>Contains Ordnance Survey data © Crown copyright and database right 2012, Contains National Statistics data © Crown copyright and database right 2012</t>
+  </si>
+  <si>
+    <t>https://content.tfl.gov.uk/cycling-potential-in-londons-diverse-communities-2021.pdf</t>
+  </si>
+  <si>
+    <t>Mode of travel - GOV UK</t>
+  </si>
+  <si>
+    <t>Proportion of adults who walk or cycle, by purpose and frequency</t>
+  </si>
+  <si>
+    <t>Reported road casualties in Great Britain: pedal cycle factsheet</t>
+  </si>
+  <si>
+    <t>Estimates of the population for the UK</t>
+  </si>
+  <si>
+    <t>When people travel - GOV UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF043C4C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF043C4C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2D3039"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,16 +196,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,129 +236,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -396,6 +278,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF043C4C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -703,335 +590,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EFCDB5-D287-44B2-861D-F34E1F3CFFC3}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA61822-70FF-439B-924D-870C531E63FF}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.9296875" customWidth="1"/>
-    <col min="2" max="2" width="40.59765625" customWidth="1"/>
-    <col min="3" max="3" width="72.19921875" customWidth="1"/>
+    <col min="1" max="1" width="54.06640625" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" customWidth="1"/>
+    <col min="3" max="3" width="63.9296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.45">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="105.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="11"/>
-      <c r="B4" s="14"/>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="165.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="171" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="C17" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="300.39999999999998" x14ac:dyDescent="0.45">
-      <c r="A17" s="17" t="s">
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+      <c r="C20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="75" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A25" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="270.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>17</v>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E7FE4663-D59F-47FF-BD42-792A2B661545}"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://data.london.gov.uk/dataset/statistical-gis-boundary-files-london" xr:uid="{FE8D5B97-F532-4523-98EB-DB396B66BB4E}"/>
-    <hyperlink ref="B7" r:id="rId3" display="https://ecf.com/resources/cycling-facts-and-figures" xr:uid="{CC34A476-F594-4B67-AC20-10DAD8628E7B}"/>
-    <hyperlink ref="B8" r:id="rId4" display="https://roadtraffic.dft.gov.uk/" xr:uid="{BB91C02B-C303-4F62-A36A-D7C3B21458EA}"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://www.gov.uk/government/statistical-data-sets/nts03-modal-comparisons" xr:uid="{6F50803A-C900-46B5-A0A8-A9BF74738DD2}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{0FA1292E-8221-48C4-9651-A3E05009DE71}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://data.london.gov.uk/dataset/number-bicycle-hires" xr:uid="{EFD50C68-72BD-4CAF-830E-B1D52F76AD6D}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{E0A47CF9-F4FC-4766-867D-CE7E258DD241}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{02C871C2-EEA0-47ED-AF55-6FB0ECE623F3}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{BA3F0203-AEC4-4A1B-B003-CF2EF6C8DA8D}"/>
-    <hyperlink ref="A13" r:id="rId11" display="https://www.gov.uk/government/statistical-data-sets/walking-and-cycling-statistics-cw" xr:uid="{B7DCFA2A-1D3E-4321-A755-227972891A63}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{F877D757-95CC-4D25-BA7D-65E21686357A}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.gov.uk/government/statistical-data-sets/nts01-average-number-of-trips-made-and-distance-travelled" xr:uid="{AD82C63F-B8BC-4AF5-943B-31BD1C26EDA2}"/>
-    <hyperlink ref="B14" r:id="rId14" xr:uid="{3074DC48-ACCF-4834-B228-78DB5967B9EB}"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://www.gov.uk/government/statistics/reported-road-casualties-great-britain-pedal-cyclist-factsheet-2021/reported-road-casualties-in-great-britain-pedal-cycle-factsheet-2021" xr:uid="{AC4F8B64-053F-4D9A-91D7-6C6DA978DA43}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{75911E51-08D1-4483-9C15-186C4F402ED5}"/>
-    <hyperlink ref="A16" r:id="rId17" display="https://www.gov.uk/government/statistics/road-traffic-estimates-in-great-britain-2021" xr:uid="{27FC8E67-6508-4022-A4EB-751A880B8A79}"/>
-    <hyperlink ref="B16" r:id="rId18" xr:uid="{BF49B852-9115-4CEA-838B-740C49AF9205}"/>
-    <hyperlink ref="B17" r:id="rId19" xr:uid="{BC536E14-D3DE-4313-A7D3-73BE0ACE3341}"/>
-    <hyperlink ref="B18" r:id="rId20" display="https://content.tfl.gov.uk/cycling-potential-in-londons-diverse-communities-2021.pdf" xr:uid="{4E7B0147-440A-40F7-9994-98A4997EB286}"/>
-    <hyperlink ref="B19" r:id="rId21" xr:uid="{C099FDC3-BB63-470E-B96F-EE949463574E}"/>
-    <hyperlink ref="B20" r:id="rId22" xr:uid="{CECBF90C-E068-4FE0-AE50-C9E3E1B0C159}"/>
-    <hyperlink ref="A21" r:id="rId23" display="https://data.london.gov.uk/dataset/public-transport-journeys-type-transport" xr:uid="{55DFA501-79DF-4764-97BE-9489CD9C3A7B}"/>
-    <hyperlink ref="B21" r:id="rId24" xr:uid="{5D45CA7E-8668-44D8-A32B-BA2A5FA04B75}"/>
-    <hyperlink ref="A22" r:id="rId25" display="https://www.gov.uk/government/statistical-data-sets/nts05-trips" xr:uid="{F1D3A1C5-06D5-4172-8417-FCFDF5039B31}"/>
-    <hyperlink ref="B22" r:id="rId26" xr:uid="{DB1F4A9C-7D83-459C-9BCD-79D5C12B2638}"/>
-    <hyperlink ref="A23" r:id="rId27" display="https://www.gov.uk/government/statistics/transport-use-during-the-coronavirus-covid-19-pandemic" xr:uid="{4F6E6E95-0179-4A38-A55C-AC977886CF54}"/>
-    <hyperlink ref="B23" r:id="rId28" xr:uid="{9D196538-FA5D-4CF4-AAB1-35356A16C63F}"/>
-    <hyperlink ref="A24" r:id="rId29" display="https://data.london.gov.uk/dataset/number-bicycle-hires" xr:uid="{319B547F-A77E-4177-B192-130CA76C3E35}"/>
-    <hyperlink ref="B24" r:id="rId30" xr:uid="{98D4BEBB-EF19-4D38-9E1E-38097B8FC199}"/>
-    <hyperlink ref="A25" r:id="rId31" display="https://data.london.gov.uk/dataset/walking-and-cycling-borough" xr:uid="{E48D6FDE-DC8B-4E92-A693-3C2F83E4800A}"/>
-    <hyperlink ref="B25" r:id="rId32" xr:uid="{0BE099DC-854F-43ED-81B8-E2C8287B02A2}"/>
-    <hyperlink ref="A26" r:id="rId33" display="https://www.ons.gov.uk/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland" xr:uid="{BD92EEC3-FAB8-4DDE-8170-94567BCDAEF0}"/>
-    <hyperlink ref="B26" r:id="rId34" xr:uid="{1A4D0825-A580-4852-B3EB-0D127C10D141}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2B1726B6-AD17-46DE-81D0-0D40F0D0C1C4}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C4385A1A-99CE-4365-9C66-CA5B06BF374A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A10D14A8-C14A-43BB-9C2E-D2622843CF48}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{44A76D96-5F03-4445-93B9-933D7D506E8E}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{29DDFBEB-F7EC-4A56-AFC0-2B6B424991C0}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C464EBF0-55A9-46EC-B3A2-3552C16B47E8}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{864E8BB2-5E09-44B3-97D2-B277D2929A67}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{4D08D885-ED80-45D9-9E48-353899B2F0E0}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{0706E46F-07AC-4813-9868-EE72FA59F44C}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{8AEBA28A-50C3-4B14-9B31-0B3240E3A1C6}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{2B38B36D-6F3C-4A35-9A53-671F49728B84}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{3C34E6A8-96C4-4124-9B8C-14668BC9AF78}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{666EEEAB-0998-4C80-96FA-FE5325B0F05B}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{CF05244A-CD5F-4CA4-BE26-19313800E313}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{97505D4A-5A7A-441B-B3B9-6BA6EB2E0FBC}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{051CB203-1208-4FC6-8B49-625A2F5816A0}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{5FC2D4A6-844D-4F0C-B01F-35CD9957E41F}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{D5043F31-F090-4F17-B725-684424A2CE4E}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{0EB61829-8EAB-4B99-B55B-F6BC42EDAC44}"/>
+    <hyperlink ref="B14" r:id="rId20" xr:uid="{53E39DAA-72E6-4748-BD36-4000ECBB28BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>